--- a/stm32f10x/documents/Development manual/M26常用指令.xlsx
+++ b/stm32f10x/documents/Development manual/M26常用指令.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,19 +29,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> +CSQ:&lt;rssi&gt;,&lt;ber&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>信号强度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rssi：1~31（99未知）ber：百分比格式，0~7是RXQUA值（99未知）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+CREG?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -70,18 +62,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>配置TCPIP应用模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>配置TCPIP应用模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>控制是否进行多路连接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,10 +95,6 @@
   </si>
   <si>
     <t>激活移动场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;IP地址&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -276,31 +260,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>N:0~5,表明连接序号，AT+QIMUX=1有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"CLOSED"和"+PDP DEACT"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+CCLK?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+QCELLLOC=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+QISEND=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+QPOWD=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> +CSQ:&lt;rssi&gt;,&lt;ber&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+CREG?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;IP地址&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AT+QIOPEN=0,"TCP","116.62.102.100",14000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N:0~5,表明连接序号，AT+QIMUX=1有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+QISEND=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"CLOSED"和"+PDP DEACT"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+CCLK?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+QCELLLOC=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+QPOWD=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +636,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -645,7 +649,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -656,258 +660,258 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/stm32f10x/documents/Development manual/M26常用指令.xlsx
+++ b/stm32f10x/documents/Development manual/M26常用指令.xlsx
@@ -216,95 +216,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>AT+CPIN?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+CSQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+CGATT?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+QIMODE=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+QIMUX=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+QIDEACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+QIREGAPP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+QIACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+QILOCIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N:0~5,表明连接序号，AT+QIMUX=1有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"CLOSED"和"+PDP DEACT"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+CCLK?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+QCELLLOC=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+QISEND=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+QPOWD=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> +CSQ:&lt;rssi&gt;,&lt;ber&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+CREG?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;IP地址&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+QIOPEN=0,"TCP","116.62.102.100",14000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AT+IPR=115200&amp;W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AT+CPIN?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+CSQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+CGATT?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AT+QIFGCNT=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+QIMODE=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+QIMUX=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+QIDEACT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+QIREGAPP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+QIACT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+QILOCIP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N:0~5,表明连接序号，AT+QIMUX=1有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"CLOSED"和"+PDP DEACT"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+CCLK?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+QCELLLOC=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+QISEND=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+QPOWD=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> +CSQ:&lt;rssi&gt;,&lt;ber&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+CREG?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;IP地址&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+QIOPEN=0,"TCP","116.62.102.100",14000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,9 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -649,7 +647,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -660,7 +658,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
@@ -671,10 +669,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -685,7 +683,7 @@
     </row>
     <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -699,7 +697,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>40</v>
@@ -710,7 +708,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -724,10 +722,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -738,7 +736,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -752,7 +750,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -763,10 +761,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -774,7 +772,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -785,10 +783,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -796,7 +794,7 @@
     </row>
     <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>20</v>
@@ -805,12 +803,12 @@
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -824,7 +822,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -854,7 +852,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
@@ -878,7 +876,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
         <v>36</v>
@@ -897,7 +895,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
         <v>43</v>

--- a/stm32f10x/documents/Development manual/M26常用指令.xlsx
+++ b/stm32f10x/documents/Development manual/M26常用指令.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2250" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -102,209 +103,209 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>建立TCP连接或注册UDP端口号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> =1在AT+QIMUX=1有效，0x1A结尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块关机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+QICLOSE</t>
+  </si>
+  <si>
+    <t>CLOSE OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭TCP UDP连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+CCLK="17/08/16,08:52:28+32"</t>
+  </si>
+  <si>
+    <t>配置M26 RTC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> +32位 32*1/4  （8个时区）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询M26 RTC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+QNTP="120.25.108.11",123</t>
+  </si>
+  <si>
+    <t>配置NTP对时IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云提供NTP 服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> +CPIN:READY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确保SIM卡的PIN码已经解码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询GPRS是否附着成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> +CGATT：1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP与域名格式切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：域名，0：IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接出现异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+QIDNSIP=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CGREG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> +CPIN: NOT READY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIM丢失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+CFUN=0，AT+CFUN=1  相当于初始化部分参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+CPIN?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+CSQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+CGATT?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+QIMODE=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+QIMUX=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+QIDEACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+QIREGAPP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+QIACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+QILOCIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N:0~5,表明连接序号，AT+QIMUX=1有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"CLOSED"和"+PDP DEACT"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+CCLK?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+QCELLLOC=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+QISEND=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+QPOWD=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> +CSQ:&lt;rssi&gt;,&lt;ber&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+CREG?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+QIOPEN=0,"TCP","116.62.102.100",14000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+IPR=115200&amp;W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT+QIFGCNT=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;IP地址&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>OK
 [N],CONNECT OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立TCP连接或注册UDP端口号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> =1在AT+QIMUX=1有效，0x1A结尾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块关机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+QICLOSE</t>
-  </si>
-  <si>
-    <t>CLOSE OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭TCP UDP连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+CCLK="17/08/16,08:52:28+32"</t>
-  </si>
-  <si>
-    <t>配置M26 RTC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> +32位 32*1/4  （8个时区）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询M26 RTC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+QNTP="120.25.108.11",123</t>
-  </si>
-  <si>
-    <t>配置NTP对时IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿里云提供NTP 服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> +CPIN:READY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确保SIM卡的PIN码已经解码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询GPRS是否附着成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> +CGATT：1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP与域名格式切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：域名，0：IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接出现异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+QIDNSIP=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CGREG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> +CPIN: NOT READY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIM丢失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+CFUN=0，AT+CFUN=1  相当于初始化部分参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+CPIN?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+CSQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+CGATT?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+QIMODE=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+QIMUX=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+QIDEACT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+QIREGAPP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+QIACT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+QILOCIP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N:0~5,表明连接序号，AT+QIMUX=1有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"CLOSED"和"+PDP DEACT"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+CCLK?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+QCELLLOC=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+QISEND=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+QPOWD=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> +CSQ:&lt;rssi&gt;,&lt;ber&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+CREG?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;IP地址&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+QIOPEN=0,"TCP","116.62.102.100",14000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+IPR=115200&amp;W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AT+QIFGCNT=0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,7 +636,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -647,7 +650,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -658,21 +661,21 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
         <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -683,7 +686,7 @@
     </row>
     <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -697,18 +700,18 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -722,10 +725,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -736,7 +739,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -750,7 +753,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -761,10 +764,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -772,7 +775,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -783,10 +786,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -794,122 +797,122 @@
     </row>
     <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
         <v>29</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>34</v>
-      </c>
-      <c r="D21" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
         <v>41</v>
-      </c>
-      <c r="D28" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
         <v>46</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>47</v>
-      </c>
-      <c r="D33" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
